--- a/doc/wxapp-plan.xlsx
+++ b/doc/wxapp-plan.xlsx
@@ -620,9 +620,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="7" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -632,51 +629,30 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="15" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="17" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -688,12 +664,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1">
       <alignment horizontal="center"/>
@@ -722,6 +692,36 @@
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -750,7 +750,7 @@
     <cellStyle name="周期突出显示控件" xfId="7"/>
     <cellStyle name="周期值" xfId="13"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="28">
     <dxf>
       <border>
         <top style="thin">
@@ -1022,139 +1022,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1517,18 +1384,18 @@
   <dimension ref="B1:BO34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="21" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="22" customWidth="1"/>
     <col min="8" max="27" width="4.42578125" style="3" customWidth="1"/>
     <col min="28" max="67" width="4.42578125" style="4" customWidth="1"/>
     <col min="68" max="16384" width="2.85546875" style="4"/>
@@ -1545,362 +1412,378 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="13" t="s">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="13" t="s">
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="13" t="s">
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-    </row>
-    <row r="3" spans="2:67" s="27" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="21" t="s">
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="15"/>
+    </row>
+    <row r="3" spans="2:67" s="19" customFormat="1" ht="40" customHeight="1" thickTop="1">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="2:67" ht="37" customHeight="1">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30">
+      <c r="B4" s="38"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="20">
         <v>1</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="20">
         <v>2</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="20">
         <v>3</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="20">
         <v>4</v>
       </c>
-      <c r="L4" s="30">
+      <c r="L4" s="20">
         <v>5</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="20">
         <v>6</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="20">
         <v>7</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="20">
         <v>8</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="20">
         <v>9</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="20">
         <v>10</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="20">
         <v>11</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="20">
         <v>12</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="20">
         <v>13</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="20">
         <v>14</v>
       </c>
-      <c r="V4" s="30">
+      <c r="V4" s="20">
         <v>15</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="20">
         <v>16</v>
       </c>
-      <c r="X4" s="30">
+      <c r="X4" s="20">
         <v>17</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="20">
         <v>18</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="20">
         <v>19</v>
       </c>
-      <c r="AA4" s="30">
+      <c r="AA4" s="20">
         <v>20</v>
       </c>
-      <c r="AB4" s="30">
+      <c r="AB4" s="20">
         <v>21</v>
       </c>
-      <c r="AC4" s="30">
+      <c r="AC4" s="20">
         <v>22</v>
       </c>
-      <c r="AD4" s="30">
+      <c r="AD4" s="20">
         <v>23</v>
       </c>
-      <c r="AE4" s="30">
+      <c r="AE4" s="20">
         <v>24</v>
       </c>
-      <c r="AF4" s="30">
+      <c r="AF4" s="20">
         <v>25</v>
       </c>
-      <c r="AG4" s="30">
+      <c r="AG4" s="20">
         <v>26</v>
       </c>
-      <c r="AH4" s="30">
+      <c r="AH4" s="20">
         <v>27</v>
       </c>
-      <c r="AI4" s="30">
+      <c r="AI4" s="20">
         <v>28</v>
       </c>
-      <c r="AJ4" s="30">
+      <c r="AJ4" s="20">
         <v>29</v>
       </c>
-      <c r="AK4" s="30">
+      <c r="AK4" s="20">
         <v>30</v>
       </c>
-      <c r="AL4" s="30">
+      <c r="AL4" s="20">
         <v>31</v>
       </c>
-      <c r="AM4" s="30">
+      <c r="AM4" s="20">
         <v>32</v>
       </c>
-      <c r="AN4" s="30">
+      <c r="AN4" s="20">
         <v>33</v>
       </c>
-      <c r="AO4" s="30">
+      <c r="AO4" s="20">
         <v>34</v>
       </c>
-      <c r="AP4" s="30">
+      <c r="AP4" s="20">
         <v>35</v>
       </c>
-      <c r="AQ4" s="30">
+      <c r="AQ4" s="20">
         <v>36</v>
       </c>
-      <c r="AR4" s="30">
+      <c r="AR4" s="20">
         <v>37</v>
       </c>
-      <c r="AS4" s="30">
+      <c r="AS4" s="20">
         <v>38</v>
       </c>
-      <c r="AT4" s="30">
+      <c r="AT4" s="20">
         <v>39</v>
       </c>
-      <c r="AU4" s="30">
+      <c r="AU4" s="20">
         <v>40</v>
       </c>
-      <c r="AV4" s="30">
+      <c r="AV4" s="20">
         <v>41</v>
       </c>
-      <c r="AW4" s="30">
+      <c r="AW4" s="20">
         <v>42</v>
       </c>
-      <c r="AX4" s="30">
+      <c r="AX4" s="20">
         <v>43</v>
       </c>
-      <c r="AY4" s="30">
+      <c r="AY4" s="20">
         <v>44</v>
       </c>
-      <c r="AZ4" s="30">
+      <c r="AZ4" s="20">
         <v>45</v>
       </c>
-      <c r="BA4" s="30">
+      <c r="BA4" s="20">
         <v>46</v>
       </c>
-      <c r="BB4" s="30">
+      <c r="BB4" s="20">
         <v>47</v>
       </c>
-      <c r="BC4" s="30">
+      <c r="BC4" s="20">
         <v>48</v>
       </c>
-      <c r="BD4" s="30">
+      <c r="BD4" s="20">
         <v>49</v>
       </c>
-      <c r="BE4" s="30">
+      <c r="BE4" s="20">
         <v>50</v>
       </c>
-      <c r="BF4" s="30">
+      <c r="BF4" s="20">
         <v>51</v>
       </c>
-      <c r="BG4" s="30">
+      <c r="BG4" s="20">
         <v>52</v>
       </c>
-      <c r="BH4" s="30">
+      <c r="BH4" s="20">
         <v>53</v>
       </c>
-      <c r="BI4" s="30">
+      <c r="BI4" s="20">
         <v>54</v>
       </c>
-      <c r="BJ4" s="30">
+      <c r="BJ4" s="20">
         <v>55</v>
       </c>
-      <c r="BK4" s="30">
+      <c r="BK4" s="20">
         <v>56</v>
       </c>
-      <c r="BL4" s="30">
+      <c r="BL4" s="20">
         <v>57</v>
       </c>
-      <c r="BM4" s="30">
+      <c r="BM4" s="20">
         <v>58</v>
       </c>
-      <c r="BN4" s="30">
+      <c r="BN4" s="20">
         <v>59</v>
       </c>
-      <c r="BO4" s="30">
+      <c r="BO4" s="20">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" s="38" customFormat="1" ht="62" customHeight="1">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="2:67" s="28" customFormat="1" ht="62" customHeight="1">
+      <c r="B5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="27">
         <v>2</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="27">
         <v>1</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="27">
         <v>2</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="27">
         <v>1</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="29">
         <v>1</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
     </row>
     <row r="6" spans="2:67" ht="62" customHeight="1">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="23" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="24">
         <v>0.1</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1</v>
+      </c>
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="2:67" ht="62" customHeight="1">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="24">
         <v>0.2</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="2:67" ht="62" customHeight="1">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3">
@@ -1909,10 +1792,18 @@
       <c r="D8" s="3">
         <v>0.7</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="2:67" ht="62" customHeight="1">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3">
@@ -1921,10 +1812,10 @@
       <c r="D9" s="3">
         <v>0.5</v>
       </c>
-      <c r="G9" s="39"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="2:67" ht="62" customHeight="1">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3">
@@ -1933,10 +1824,10 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="2:67" ht="62" customHeight="1">
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3">
@@ -1945,10 +1836,10 @@
       <c r="D11" s="3">
         <v>0.5</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="2:67" ht="62" customHeight="1">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3">
@@ -1957,10 +1848,10 @@
       <c r="D12" s="3">
         <v>0.5</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="2:67" ht="62" customHeight="1">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="3">
@@ -1969,10 +1860,10 @@
       <c r="D13" s="3">
         <v>0.5</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="2:67" ht="62" customHeight="1">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3">
@@ -1981,10 +1872,10 @@
       <c r="D14" s="3">
         <v>0.5</v>
       </c>
-      <c r="G14" s="39"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:67" ht="62" customHeight="1">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="3">
@@ -1993,10 +1884,10 @@
       <c r="D15" s="3">
         <v>0.5</v>
       </c>
-      <c r="G15" s="39"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="2:67" ht="62" customHeight="1">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="3">
@@ -2005,22 +1896,22 @@
       <c r="D16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="2:7" ht="62" customHeight="1">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="25">
         <v>11</v>
       </c>
       <c r="D17" s="3">
         <v>0.8</v>
       </c>
-      <c r="G17" s="39"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="2:7" ht="62" customHeight="1">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="3">
@@ -2029,10 +1920,10 @@
       <c r="D18" s="3">
         <v>0.3</v>
       </c>
-      <c r="G18" s="39"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="2:7" ht="62" customHeight="1">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="21" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="3">
@@ -2041,10 +1932,10 @@
       <c r="D19" s="3">
         <v>0.5</v>
       </c>
-      <c r="G19" s="39"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="2:7" ht="62" customHeight="1">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="21" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="3">
@@ -2053,10 +1944,10 @@
       <c r="D20" s="3">
         <v>0.5</v>
       </c>
-      <c r="G20" s="39"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="2:7" ht="62" customHeight="1">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="3">
@@ -2065,10 +1956,10 @@
       <c r="D21" s="3">
         <v>0.5</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="2:7" ht="62" customHeight="1">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="3">
@@ -2077,10 +1968,10 @@
       <c r="D22" s="3">
         <v>0.5</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7" ht="62" customHeight="1">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="3">
@@ -2089,10 +1980,10 @@
       <c r="D23" s="3">
         <v>0.3</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" ht="62" customHeight="1">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="3">
@@ -2101,10 +1992,10 @@
       <c r="D24" s="3">
         <v>0.2</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" ht="62" customHeight="1">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="3">
@@ -2113,10 +2004,10 @@
       <c r="D25" s="3">
         <v>0.1</v>
       </c>
-      <c r="G25" s="39"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" ht="62" customHeight="1">
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="3">
@@ -2125,10 +2016,10 @@
       <c r="D26" s="3">
         <v>0.5</v>
       </c>
-      <c r="G26" s="39"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7" ht="62" customHeight="1">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="3">
@@ -2137,10 +2028,10 @@
       <c r="D27" s="3">
         <v>0.7</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="2:7" ht="62" customHeight="1">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="21" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="3">
@@ -2149,10 +2040,10 @@
       <c r="D28" s="3">
         <v>1.5</v>
       </c>
-      <c r="G28" s="39"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="2:7" ht="62" customHeight="1">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="3">
@@ -2161,10 +2052,10 @@
       <c r="D29" s="3">
         <v>0.5</v>
       </c>
-      <c r="G29" s="39"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="2:7" ht="62" customHeight="1">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C30" s="3">
@@ -2173,10 +2064,10 @@
       <c r="D30" s="3">
         <v>1.5</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="2:7" ht="62" customHeight="1">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="21" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="3">
@@ -2185,10 +2076,10 @@
       <c r="D31" s="3">
         <v>0.5</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="2:7" ht="62" customHeight="1">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="21" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="3">
@@ -2197,10 +2088,10 @@
       <c r="D32" s="3">
         <v>0.5</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7" ht="62" customHeight="1">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="3">
@@ -2209,10 +2100,10 @@
       <c r="D33" s="3">
         <v>0.2</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" ht="62" customHeight="1">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="3">
@@ -2221,7 +2112,7 @@
       <c r="D34" s="3">
         <v>0.5</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="29"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/doc/wxapp-plan.xlsx
+++ b/doc/wxapp-plan.xlsx
@@ -693,6 +693,24 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,24 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1384,7 +1384,7 @@
   <dimension ref="B1:BO34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
@@ -1412,13 +1412,13 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1426,66 +1426,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
       <c r="AF2" s="13"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
       <c r="AO2" s="15"/>
       <c r="AP2" s="15"/>
     </row>
     <row r="3" spans="2:67" s="19" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="16" t="s">
@@ -1512,12 +1512,12 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="2:67" ht="37" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="20">
         <v>1</v>
       </c>
@@ -2117,6 +2117,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -2124,11 +2129,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="BP5:BP7">

--- a/doc/wxapp-plan.xlsx
+++ b/doc/wxapp-plan.xlsx
@@ -693,6 +693,18 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,18 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1383,8 +1383,8 @@
   </sheetPr>
   <dimension ref="B1:BO34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
@@ -1412,13 +1412,13 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1426,66 +1426,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="36" t="s">
+      <c r="V2" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="13"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="36" t="s">
+      <c r="AH2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
       <c r="AO2" s="15"/>
       <c r="AP2" s="15"/>
     </row>
     <row r="3" spans="2:67" s="19" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="16" t="s">
@@ -1512,12 +1512,12 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="2:67" ht="37" customHeight="1">
-      <c r="B4" s="34"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="20">
         <v>1</v>
       </c>
@@ -1812,7 +1812,15 @@
       <c r="D9" s="3">
         <v>0.5</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="E9" s="3">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="2:67" ht="62" customHeight="1">
       <c r="B10" s="21" t="s">
@@ -1824,7 +1832,15 @@
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:67" ht="62" customHeight="1">
       <c r="B11" s="21" t="s">
@@ -2117,11 +2133,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -2129,6 +2140,11 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="BP5:BP7">

--- a/doc/wxapp-plan.xlsx
+++ b/doc/wxapp-plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="560" windowWidth="30980" windowHeight="16060"/>
+    <workbookView xWindow="6040" yWindow="940" windowWidth="30980" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="项目规划器" sheetId="1" r:id="rId1"/>
@@ -1383,8 +1383,8 @@
   </sheetPr>
   <dimension ref="B1:BO34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
@@ -1852,7 +1852,15 @@
       <c r="D11" s="3">
         <v>0.5</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:67" ht="62" customHeight="1">
       <c r="B12" s="21" t="s">
@@ -1864,7 +1872,15 @@
       <c r="D12" s="3">
         <v>0.5</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:67" ht="62" customHeight="1">
       <c r="B13" s="21" t="s">
@@ -1876,7 +1892,15 @@
       <c r="D13" s="3">
         <v>0.5</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="E13" s="3">
+        <v>6</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="2:67" ht="62" customHeight="1">
       <c r="B14" s="21" t="s">

--- a/doc/wxapp-plan.xlsx
+++ b/doc/wxapp-plan.xlsx
@@ -693,6 +693,24 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,24 +722,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1383,8 +1383,8 @@
   </sheetPr>
   <dimension ref="B1:BO34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
@@ -1412,13 +1412,13 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1426,66 +1426,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
       <c r="AF2" s="13"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
       <c r="AO2" s="15"/>
       <c r="AP2" s="15"/>
     </row>
     <row r="3" spans="2:67" s="19" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="16" t="s">
@@ -1512,12 +1512,12 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="2:67" ht="37" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="20">
         <v>1</v>
       </c>
@@ -1912,6 +1912,9 @@
       <c r="D14" s="3">
         <v>0.5</v>
       </c>
+      <c r="E14" s="3">
+        <v>9</v>
+      </c>
       <c r="G14" s="29"/>
     </row>
     <row r="15" spans="2:67" ht="62" customHeight="1">
@@ -2157,6 +2160,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -2164,11 +2172,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="BP5:BP7">

--- a/doc/wxapp-plan.xlsx
+++ b/doc/wxapp-plan.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>活动</t>
   </si>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全部订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单详情页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,6 +193,14 @@
   </si>
   <si>
     <t xml:space="preserve">完成（超出计划）百分比 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单页面功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -204,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -357,6 +361,22 @@
       <sz val="18"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -534,7 +554,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,6 +623,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -693,6 +719,18 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -711,20 +749,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="26">
     <cellStyle name="百分比" xfId="23" builtinId="5"/>
     <cellStyle name="标签" xfId="5"/>
     <cellStyle name="标题" xfId="8" builtinId="15" customBuiltin="1"/>
@@ -732,6 +758,8 @@
     <cellStyle name="标题 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="汇总" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="活动" xfId="2"/>
     <cellStyle name="计划图例" xfId="14"/>
@@ -1381,10 +1409,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO34"/>
+  <dimension ref="B1:BO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
@@ -1412,13 +1440,13 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
@@ -1426,66 +1454,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
+      <c r="V2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
+      <c r="AA2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
       <c r="AF2" s="13"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
+      <c r="AH2" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
       <c r="AO2" s="15"/>
       <c r="AP2" s="15"/>
     </row>
     <row r="3" spans="2:67" s="19" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="16" t="s">
@@ -1512,12 +1540,12 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="2:67" ht="37" customHeight="1">
-      <c r="B4" s="34"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="20">
         <v>1</v>
       </c>
@@ -1915,7 +1943,12 @@
       <c r="E14" s="3">
         <v>9</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="F14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:67" ht="62" customHeight="1">
       <c r="B15" s="21" t="s">
@@ -1927,35 +1960,59 @@
       <c r="D15" s="3">
         <v>0.5</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="E15" s="3">
+        <v>9</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:67" ht="62" customHeight="1">
       <c r="B16" s="21" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
       </c>
       <c r="D16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="29">
         <v>1</v>
       </c>
-      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="2:7" ht="62" customHeight="1">
       <c r="B17" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3">
         <v>0.8</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="E17" s="3">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="62" customHeight="1">
       <c r="B18" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3">
         <v>11</v>
@@ -1967,10 +2024,10 @@
     </row>
     <row r="19" spans="2:7" ht="62" customHeight="1">
       <c r="B19" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3">
         <v>0.5</v>
@@ -1979,7 +2036,7 @@
     </row>
     <row r="20" spans="2:7" ht="62" customHeight="1">
       <c r="B20" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
@@ -1987,14 +2044,22 @@
       <c r="D20" s="3">
         <v>0.5</v>
       </c>
-      <c r="G20" s="29"/>
+      <c r="E20" s="3">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G20" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="62" customHeight="1">
       <c r="B21" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3">
         <v>0.5</v>
@@ -2003,7 +2068,7 @@
     </row>
     <row r="22" spans="2:7" ht="62" customHeight="1">
       <c r="B22" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
         <v>13</v>
@@ -2015,10 +2080,10 @@
     </row>
     <row r="23" spans="2:7" ht="62" customHeight="1">
       <c r="B23" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3">
         <v>0.3</v>
@@ -2027,10 +2092,10 @@
     </row>
     <row r="24" spans="2:7" ht="62" customHeight="1">
       <c r="B24" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3">
         <v>0.2</v>
@@ -2039,7 +2104,7 @@
     </row>
     <row r="25" spans="2:7" ht="62" customHeight="1">
       <c r="B25" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
@@ -2051,7 +2116,7 @@
     </row>
     <row r="26" spans="2:7" ht="62" customHeight="1">
       <c r="B26" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3">
         <v>16</v>
@@ -2063,10 +2128,10 @@
     </row>
     <row r="27" spans="2:7" ht="62" customHeight="1">
       <c r="B27" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="3">
         <v>0.7</v>
@@ -2075,7 +2140,7 @@
     </row>
     <row r="28" spans="2:7" ht="62" customHeight="1">
       <c r="B28" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3">
         <v>17</v>
@@ -2087,7 +2152,7 @@
     </row>
     <row r="29" spans="2:7" ht="62" customHeight="1">
       <c r="B29" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3">
         <v>19</v>
@@ -2111,7 +2176,7 @@
     </row>
     <row r="31" spans="2:7" ht="62" customHeight="1">
       <c r="B31" s="21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3">
         <v>23</v>
@@ -2123,10 +2188,10 @@
     </row>
     <row r="32" spans="2:7" ht="62" customHeight="1">
       <c r="B32" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3">
         <v>0.5</v>
@@ -2135,36 +2200,43 @@
     </row>
     <row r="33" spans="2:7" ht="62" customHeight="1">
       <c r="B33" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3">
         <v>24</v>
       </c>
       <c r="D33" s="3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G33" s="29"/>
     </row>
     <row r="34" spans="2:7" ht="62" customHeight="1">
       <c r="B34" s="21" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C34" s="3">
         <v>24</v>
       </c>
       <c r="D34" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="2:7" ht="62" customHeight="1">
+      <c r="B35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="29"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="K2:M2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -2172,6 +2244,11 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="BP5:BP7">
@@ -2200,7 +2277,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BO34 H5:M7">
+  <conditionalFormatting sqref="H8:BO35 H5:M7">
     <cfRule type="expression" dxfId="19" priority="4">
       <formula>完成百分比</formula>
     </cfRule>
@@ -2257,17 +2334,17 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="B33">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C33">
+  <conditionalFormatting sqref="C33:C34">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D33">
+  <conditionalFormatting sqref="D33:D34">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>TRUE</formula>
     </cfRule>

--- a/doc/wxapp-plan.xlsx
+++ b/doc/wxapp-plan.xlsx
@@ -69,138 +69,138 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>提交订单页面功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">个人中心 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在右侧选择要突出显示的周期。描述图表的图例如下所示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 周期突出显示：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改门店id为缓存方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部导航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手艺人列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手艺人详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务项目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定退款页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的会员卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员卡详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约 置灰不可选的时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情页面功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">完成百分比 </t>
+  </si>
+  <si>
+    <t>实际（超出计划）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">完成（超出计划）百分比 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部订单页面功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>我的会员卡列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单页面功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">个人中心 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在右侧选择要突出显示的周期。描述图表的图例如下所示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 周期突出显示：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改门店id为缓存方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底部导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手艺人列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手艺人详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务项目列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交订单页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定退款页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的预约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的会员卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员卡详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的优惠券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的评价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预约 置灰不可选的时间段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单详情页面功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认退款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">完成百分比 </t>
-  </si>
-  <si>
-    <t>实际（超出计划）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">完成（超出计划）百分比 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部订单页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部订单页面功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +554,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,6 +623,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,7 +768,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="32">
     <cellStyle name="百分比" xfId="23" builtinId="5"/>
     <cellStyle name="标签" xfId="5"/>
     <cellStyle name="标题" xfId="8" builtinId="15" customBuiltin="1"/>
@@ -759,7 +777,13 @@
     <cellStyle name="标题 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="汇总" xfId="22" builtinId="25" customBuiltin="1"/>
     <cellStyle name="活动" xfId="2"/>
     <cellStyle name="计划图例" xfId="14"/>
@@ -1412,7 +1436,7 @@
   <dimension ref="B1:BO35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
@@ -1441,14 +1465,14 @@
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
       <c r="B2" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6">
         <v>1</v>
@@ -1462,7 +1486,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
       <c r="P2" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
@@ -1470,14 +1494,14 @@
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
       <c r="V2" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB2" s="31"/>
       <c r="AC2" s="31"/>
@@ -1486,7 +1510,7 @@
       <c r="AF2" s="13"/>
       <c r="AG2" s="14"/>
       <c r="AH2" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI2" s="31"/>
       <c r="AJ2" s="31"/>
@@ -1770,7 +1794,7 @@
     </row>
     <row r="6" spans="2:67" ht="62" customHeight="1">
       <c r="B6" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -1791,7 +1815,7 @@
     </row>
     <row r="7" spans="2:67" ht="62" customHeight="1">
       <c r="B7" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -1832,7 +1856,7 @@
     </row>
     <row r="9" spans="2:67" ht="62" customHeight="1">
       <c r="B9" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>4</v>
@@ -1852,7 +1876,7 @@
     </row>
     <row r="10" spans="2:67" ht="62" customHeight="1">
       <c r="B10" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>4</v>
@@ -1872,7 +1896,7 @@
     </row>
     <row r="11" spans="2:67" ht="62" customHeight="1">
       <c r="B11" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <v>5</v>
@@ -1912,7 +1936,7 @@
     </row>
     <row r="13" spans="2:67" ht="62" customHeight="1">
       <c r="B13" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
@@ -1932,7 +1956,7 @@
     </row>
     <row r="14" spans="2:67" ht="62" customHeight="1">
       <c r="B14" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
         <v>9</v>
@@ -1952,7 +1976,7 @@
     </row>
     <row r="15" spans="2:67" ht="62" customHeight="1">
       <c r="B15" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>9</v>
@@ -1972,7 +1996,7 @@
     </row>
     <row r="16" spans="2:67" ht="62" customHeight="1">
       <c r="B16" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3">
         <v>10</v>
@@ -1992,7 +2016,7 @@
     </row>
     <row r="17" spans="2:7" ht="62" customHeight="1">
       <c r="B17" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="25">
         <v>10</v>
@@ -2012,7 +2036,7 @@
     </row>
     <row r="18" spans="2:7" ht="62" customHeight="1">
       <c r="B18" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3">
         <v>11</v>
@@ -2020,11 +2044,19 @@
       <c r="D18" s="3">
         <v>0.3</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="E18" s="3">
+        <v>11</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G18" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="62" customHeight="1">
       <c r="B19" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3">
         <v>11</v>
@@ -2032,11 +2064,19 @@
       <c r="D19" s="3">
         <v>0.5</v>
       </c>
-      <c r="G19" s="29"/>
+      <c r="E19" s="3">
+        <v>11</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="62" customHeight="1">
       <c r="B20" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="3">
         <v>12</v>
@@ -2056,7 +2096,7 @@
     </row>
     <row r="21" spans="2:7" ht="62" customHeight="1">
       <c r="B21" s="21" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C21" s="3">
         <v>12</v>
@@ -2064,11 +2104,19 @@
       <c r="D21" s="3">
         <v>0.5</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="E21" s="3">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="62" customHeight="1">
       <c r="B22" s="21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3">
         <v>13</v>
@@ -2080,67 +2128,67 @@
     </row>
     <row r="23" spans="2:7" ht="62" customHeight="1">
       <c r="B23" s="21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C23" s="3">
         <v>13</v>
       </c>
       <c r="D23" s="3">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="2:7" ht="62" customHeight="1">
       <c r="B24" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="29"/>
     </row>
     <row r="25" spans="2:7" ht="62" customHeight="1">
       <c r="B25" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3">
         <v>16</v>
       </c>
       <c r="D25" s="3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" ht="62" customHeight="1">
       <c r="B26" s="21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C26" s="3">
         <v>16</v>
       </c>
       <c r="D26" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7" ht="62" customHeight="1">
       <c r="B27" s="21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3">
         <v>16</v>
       </c>
       <c r="D27" s="3">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="G27" s="29"/>
     </row>
     <row r="28" spans="2:7" ht="62" customHeight="1">
       <c r="B28" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="3">
         <v>17</v>
@@ -2152,7 +2200,7 @@
     </row>
     <row r="29" spans="2:7" ht="62" customHeight="1">
       <c r="B29" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="3">
         <v>19</v>
@@ -2164,7 +2212,7 @@
     </row>
     <row r="30" spans="2:7" ht="62" customHeight="1">
       <c r="B30" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="3">
         <v>20</v>
@@ -2176,7 +2224,7 @@
     </row>
     <row r="31" spans="2:7" ht="62" customHeight="1">
       <c r="B31" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3">
         <v>23</v>
@@ -2188,7 +2236,7 @@
     </row>
     <row r="32" spans="2:7" ht="62" customHeight="1">
       <c r="B32" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="3">
         <v>23</v>
@@ -2200,7 +2248,7 @@
     </row>
     <row r="33" spans="2:7" ht="62" customHeight="1">
       <c r="B33" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3">
         <v>24</v>
@@ -2212,7 +2260,7 @@
     </row>
     <row r="34" spans="2:7" ht="62" customHeight="1">
       <c r="B34" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3">
         <v>24</v>
@@ -2224,7 +2272,7 @@
     </row>
     <row r="35" spans="2:7" ht="62" customHeight="1">
       <c r="B35" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3">
         <v>24</v>
@@ -2277,7 +2325,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BO35 H5:M7">
+  <conditionalFormatting sqref="H5:M7 H8:BO35">
     <cfRule type="expression" dxfId="19" priority="4">
       <formula>完成百分比</formula>
     </cfRule>

--- a/doc/wxapp-plan.xlsx
+++ b/doc/wxapp-plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="940" windowWidth="30980" windowHeight="16060"/>
+    <workbookView xWindow="6100" yWindow="2080" windowWidth="30980" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="项目规划器" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>活动</t>
   </si>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>我的会员卡列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,6 +741,24 @@
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,24 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="32">
@@ -1433,10 +1437,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO35"/>
+  <dimension ref="B1:BO36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0"/>
@@ -1464,13 +1468,13 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1478,66 +1482,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
       <c r="T2" s="10"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
       <c r="Y2" s="10"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
       <c r="AF2" s="13"/>
       <c r="AG2" s="14"/>
-      <c r="AH2" s="30" t="s">
+      <c r="AH2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
       <c r="AO2" s="15"/>
       <c r="AP2" s="15"/>
     </row>
     <row r="3" spans="2:67" s="19" customFormat="1" ht="40" customHeight="1" thickTop="1">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="30" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="16" t="s">
@@ -1564,12 +1568,12 @@
       <c r="AA3" s="18"/>
     </row>
     <row r="4" spans="2:67" ht="37" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="20">
         <v>1</v>
       </c>
@@ -2124,7 +2128,15 @@
       <c r="D22" s="3">
         <v>0.5</v>
       </c>
-      <c r="G22" s="29"/>
+      <c r="E22" s="3">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:7" ht="62" customHeight="1">
       <c r="B23" s="21" t="s">
@@ -2134,9 +2146,17 @@
         <v>13</v>
       </c>
       <c r="D23" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="G23" s="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="62" customHeight="1">
       <c r="B24" s="21" t="s">
@@ -2148,7 +2168,15 @@
       <c r="D24" s="3">
         <v>0.5</v>
       </c>
-      <c r="G24" s="29"/>
+      <c r="E24" s="3">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="2:7" ht="62" customHeight="1">
       <c r="B25" s="21" t="s">
@@ -2160,7 +2188,15 @@
       <c r="D25" s="3">
         <v>0.3</v>
       </c>
-      <c r="G25" s="29"/>
+      <c r="E25" s="3">
+        <v>16</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G25" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="62" customHeight="1">
       <c r="B26" s="21" t="s">
@@ -2172,7 +2208,15 @@
       <c r="D26" s="3">
         <v>0.2</v>
       </c>
-      <c r="G26" s="29"/>
+      <c r="E26" s="3">
+        <v>16</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="62" customHeight="1">
       <c r="B27" s="21" t="s">
@@ -2184,7 +2228,15 @@
       <c r="D27" s="3">
         <v>0.1</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="E27" s="3">
+        <v>16</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G27" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="62" customHeight="1">
       <c r="B28" s="21" t="s">
@@ -2208,7 +2260,15 @@
       <c r="D29" s="3">
         <v>0.5</v>
       </c>
-      <c r="G29" s="29"/>
+      <c r="E29" s="3">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="2:7" ht="62" customHeight="1">
       <c r="B30" s="21" t="s">
@@ -2244,14 +2304,22 @@
       <c r="D32" s="3">
         <v>0.5</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="E32" s="3">
+        <v>13</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="2:7" ht="62" customHeight="1">
       <c r="B33" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3">
         <v>0.5</v>
@@ -2268,23 +2336,56 @@
       <c r="D34" s="3">
         <v>0.2</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="E34" s="3">
+        <v>13</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="G34" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="2:7" ht="62" customHeight="1">
       <c r="B35" s="21" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C35" s="3">
         <v>24</v>
       </c>
       <c r="D35" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="29"/>
+        <v>0.3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>13</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="62" customHeight="1">
+      <c r="B36" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3">
+        <v>24</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="29"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
@@ -2292,11 +2393,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="BP5:BP7">
@@ -2325,7 +2421,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:M7 H8:BO35">
+  <conditionalFormatting sqref="H5:M7 H8:BO36">
     <cfRule type="expression" dxfId="19" priority="4">
       <formula>完成百分比</formula>
     </cfRule>
@@ -2387,12 +2483,12 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33:C34">
+  <conditionalFormatting sqref="C33:C35">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D34">
+  <conditionalFormatting sqref="D33:D35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>TRUE</formula>
     </cfRule>
